--- a/backend/excel_templates/result.xlsx
+++ b/backend/excel_templates/result.xlsx
@@ -97,11 +97,11 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top style="medium">
+        <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,8 +151,8 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
@@ -1382,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,246 +1392,47 @@
   <cols>
     <col width="39.3516" customWidth="1" style="4" min="1" max="1"/>
     <col width="27.8516" customWidth="1" style="4" min="2" max="2"/>
-    <col width="23.5" customWidth="1" style="4" min="3" max="3"/>
-    <col width="21.5" customWidth="1" style="4" min="4" max="4"/>
-    <col width="18.5" customWidth="1" style="4" min="5" max="5"/>
-    <col width="10.5" customWidth="1" style="4" min="6" max="6"/>
-    <col width="18.5" customWidth="1" style="4" min="7" max="7"/>
-    <col width="10.5" customWidth="1" style="4" min="8" max="8"/>
-    <col width="8.851559999999999" customWidth="1" style="4" min="9" max="33"/>
-    <col width="36.5" customWidth="1" style="4" min="34" max="34"/>
-    <col width="19" customWidth="1" style="4" min="35" max="35"/>
-    <col width="8.851559999999999" customWidth="1" style="4" min="36" max="41"/>
-    <col width="41" customWidth="1" style="4" min="42" max="42"/>
-    <col width="8.851559999999999" customWidth="1" style="4" min="43" max="44"/>
-    <col width="15.8516" customWidth="1" style="4" min="45" max="45"/>
-    <col width="8.851559999999999" customWidth="1" style="4" min="46" max="16384"/>
+    <col width="21.5" customWidth="1" style="4" min="3" max="3"/>
+    <col width="10.5" customWidth="1" style="4" min="4" max="4"/>
+    <col width="36.5" customWidth="1" style="4" min="5" max="5"/>
+    <col width="41" customWidth="1" style="4" min="6" max="7"/>
+    <col width="8.851559999999999" customWidth="1" style="4" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="8">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Campaign</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Ad Group</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Ad type</t>
+          <t>Кампания</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Заголовок 1</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Headline 1</t>
+          <t>Заголовок 2</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Headline 1 position</t>
+          <t>Текст</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Headline 2</t>
+          <t>Ссылка</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Headline 2 position</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 3</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 3 position</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 4</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 4 position</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 5</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 5 position</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 6</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 6 position</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 7</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 7 position</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 8</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 8 position</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 9</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 9 position</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 10</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 10 position</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 11</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 11 position</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 12</t>
-        </is>
-      </c>
-      <c r="AA1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 12 position</t>
-        </is>
-      </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 13</t>
-        </is>
-      </c>
-      <c r="AC1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 13 position</t>
-        </is>
-      </c>
-      <c r="AD1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 14</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 14 position</t>
-        </is>
-      </c>
-      <c r="AF1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 15</t>
-        </is>
-      </c>
-      <c r="AG1" s="2" t="inlineStr">
-        <is>
-          <t>Headline 15 position</t>
-        </is>
-      </c>
-      <c r="AH1" s="2" t="inlineStr">
-        <is>
-          <t>Description 1</t>
-        </is>
-      </c>
-      <c r="AI1" s="2" t="inlineStr">
-        <is>
-          <t>Description 1 position</t>
-        </is>
-      </c>
-      <c r="AJ1" s="2" t="inlineStr">
-        <is>
-          <t>Description 2</t>
-        </is>
-      </c>
-      <c r="AK1" s="2" t="inlineStr">
-        <is>
-          <t>Description 2 position</t>
-        </is>
-      </c>
-      <c r="AL1" s="2" t="inlineStr">
-        <is>
-          <t>Description 3</t>
-        </is>
-      </c>
-      <c r="AM1" s="2" t="inlineStr">
-        <is>
-          <t>Description 3 position</t>
-        </is>
-      </c>
-      <c r="AN1" s="2" t="inlineStr">
-        <is>
-          <t>Description 4</t>
-        </is>
-      </c>
-      <c r="AO1" s="2" t="inlineStr">
-        <is>
-          <t>Description 4 position</t>
-        </is>
-      </c>
-      <c r="AP1" s="2" t="inlineStr">
-        <is>
-          <t>Final URL</t>
-        </is>
-      </c>
-      <c r="AQ1" s="2" t="inlineStr">
-        <is>
-          <t>Path 1</t>
-        </is>
-      </c>
-      <c r="AR1" s="2" t="inlineStr">
-        <is>
-          <t>Path 2</t>
-        </is>
-      </c>
-      <c r="AS1" s="2" t="inlineStr">
-        <is>
-          <t>Tracking template</t>
+          <t>Отображаемая ссылка</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1449,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Responsive search ad</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -1658,87 +1459,17 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>http://asd</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>asd</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="3" t="n"/>
-      <c r="P2" s="3" t="n"/>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="3" t="n"/>
-      <c r="T2" s="3" t="n"/>
-      <c r="U2" s="3" t="n"/>
-      <c r="V2" s="3" t="n"/>
-      <c r="W2" s="3" t="n"/>
-      <c r="X2" s="3" t="n"/>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="3" t="n"/>
-      <c r="AA2" s="3" t="n"/>
-      <c r="AB2" s="3" t="n"/>
-      <c r="AC2" s="3" t="n"/>
-      <c r="AD2" s="3" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="3" t="n"/>
-      <c r="AG2" s="3" t="n"/>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AI2" s="3" t="inlineStr"/>
-      <c r="AJ2" s="3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AK2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL2" s="3" t="n"/>
-      <c r="AM2" s="3" t="n"/>
-      <c r="AN2" s="3" t="n"/>
-      <c r="AO2" s="3" t="n"/>
-      <c r="AP2" s="3" t="inlineStr">
-        <is>
-          <t>https://asd</t>
-        </is>
-      </c>
-      <c r="AQ2" s="3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AR2" s="3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AS2" s="3" t="inlineStr">
-        <is>
-          <t>{lpurl}asd</t>
         </is>
       </c>
     </row>
@@ -1750,44 +1481,6 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="3" t="n"/>
-      <c r="Z3" s="3" t="n"/>
-      <c r="AA3" s="3" t="n"/>
-      <c r="AB3" s="3" t="n"/>
-      <c r="AC3" s="3" t="n"/>
-      <c r="AD3" s="3" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="3" t="n"/>
-      <c r="AG3" s="3" t="n"/>
-      <c r="AH3" s="3" t="n"/>
-      <c r="AI3" s="3" t="n"/>
-      <c r="AJ3" s="3" t="n"/>
-      <c r="AK3" s="3" t="n"/>
-      <c r="AL3" s="3" t="n"/>
-      <c r="AM3" s="3" t="n"/>
-      <c r="AN3" s="3" t="n"/>
-      <c r="AO3" s="3" t="n"/>
-      <c r="AP3" s="3" t="n"/>
-      <c r="AQ3" s="3" t="n"/>
-      <c r="AR3" s="3" t="n"/>
-      <c r="AS3" s="3" t="n"/>
     </row>
     <row r="4" ht="13.55" customHeight="1" s="8">
       <c r="A4" s="3" t="n"/>
@@ -1797,44 +1490,6 @@
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="3" t="n"/>
-      <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="3" t="n"/>
-      <c r="AB4" s="3" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="3" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-      <c r="AG4" s="3" t="n"/>
-      <c r="AH4" s="3" t="n"/>
-      <c r="AI4" s="3" t="n"/>
-      <c r="AJ4" s="3" t="n"/>
-      <c r="AK4" s="3" t="n"/>
-      <c r="AL4" s="3" t="n"/>
-      <c r="AM4" s="3" t="n"/>
-      <c r="AN4" s="3" t="n"/>
-      <c r="AO4" s="3" t="n"/>
-      <c r="AP4" s="3" t="n"/>
-      <c r="AQ4" s="3" t="n"/>
-      <c r="AR4" s="3" t="n"/>
-      <c r="AS4" s="3" t="n"/>
     </row>
     <row r="5" ht="13.55" customHeight="1" s="8">
       <c r="A5" s="3" t="n"/>
@@ -1844,44 +1499,6 @@
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
       <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="3" t="n"/>
-      <c r="Z5" s="3" t="n"/>
-      <c r="AA5" s="3" t="n"/>
-      <c r="AB5" s="3" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-      <c r="AG5" s="3" t="n"/>
-      <c r="AH5" s="3" t="n"/>
-      <c r="AI5" s="3" t="n"/>
-      <c r="AJ5" s="3" t="n"/>
-      <c r="AK5" s="3" t="n"/>
-      <c r="AL5" s="3" t="n"/>
-      <c r="AM5" s="3" t="n"/>
-      <c r="AN5" s="3" t="n"/>
-      <c r="AO5" s="3" t="n"/>
-      <c r="AP5" s="3" t="n"/>
-      <c r="AQ5" s="3" t="n"/>
-      <c r="AR5" s="3" t="n"/>
-      <c r="AS5" s="3" t="n"/>
     </row>
     <row r="6" ht="13.55" customHeight="1" s="8">
       <c r="A6" s="3" t="n"/>
@@ -1891,44 +1508,6 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
       <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="3" t="n"/>
-      <c r="Z6" s="3" t="n"/>
-      <c r="AA6" s="3" t="n"/>
-      <c r="AB6" s="3" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-      <c r="AG6" s="3" t="n"/>
-      <c r="AH6" s="3" t="n"/>
-      <c r="AI6" s="3" t="n"/>
-      <c r="AJ6" s="3" t="n"/>
-      <c r="AK6" s="3" t="n"/>
-      <c r="AL6" s="3" t="n"/>
-      <c r="AM6" s="3" t="n"/>
-      <c r="AN6" s="3" t="n"/>
-      <c r="AO6" s="3" t="n"/>
-      <c r="AP6" s="3" t="n"/>
-      <c r="AQ6" s="3" t="n"/>
-      <c r="AR6" s="3" t="n"/>
-      <c r="AS6" s="3" t="n"/>
     </row>
     <row r="7" ht="13.55" customHeight="1" s="8">
       <c r="A7" s="3" t="n"/>
@@ -1938,44 +1517,6 @@
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="3" t="n"/>
-      <c r="S7" s="3" t="n"/>
-      <c r="T7" s="3" t="n"/>
-      <c r="U7" s="3" t="n"/>
-      <c r="V7" s="3" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="3" t="n"/>
-      <c r="Y7" s="3" t="n"/>
-      <c r="Z7" s="3" t="n"/>
-      <c r="AA7" s="3" t="n"/>
-      <c r="AB7" s="3" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="3" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-      <c r="AG7" s="3" t="n"/>
-      <c r="AH7" s="3" t="n"/>
-      <c r="AI7" s="3" t="n"/>
-      <c r="AJ7" s="3" t="n"/>
-      <c r="AK7" s="3" t="n"/>
-      <c r="AL7" s="3" t="n"/>
-      <c r="AM7" s="3" t="n"/>
-      <c r="AN7" s="3" t="n"/>
-      <c r="AO7" s="3" t="n"/>
-      <c r="AP7" s="3" t="n"/>
-      <c r="AQ7" s="3" t="n"/>
-      <c r="AR7" s="3" t="n"/>
-      <c r="AS7" s="3" t="n"/>
     </row>
     <row r="8" ht="13.55" customHeight="1" s="8">
       <c r="A8" s="3" t="n"/>
@@ -1985,44 +1526,6 @@
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
       <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="3" t="n"/>
-      <c r="R8" s="3" t="n"/>
-      <c r="S8" s="3" t="n"/>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
-      <c r="Y8" s="3" t="n"/>
-      <c r="Z8" s="3" t="n"/>
-      <c r="AA8" s="3" t="n"/>
-      <c r="AB8" s="3" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="3" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-      <c r="AG8" s="3" t="n"/>
-      <c r="AH8" s="3" t="n"/>
-      <c r="AI8" s="3" t="n"/>
-      <c r="AJ8" s="3" t="n"/>
-      <c r="AK8" s="3" t="n"/>
-      <c r="AL8" s="3" t="n"/>
-      <c r="AM8" s="3" t="n"/>
-      <c r="AN8" s="3" t="n"/>
-      <c r="AO8" s="3" t="n"/>
-      <c r="AP8" s="3" t="n"/>
-      <c r="AQ8" s="3" t="n"/>
-      <c r="AR8" s="3" t="n"/>
-      <c r="AS8" s="3" t="n"/>
     </row>
     <row r="9" ht="13.55" customHeight="1" s="8">
       <c r="A9" s="3" t="n"/>
@@ -2032,44 +1535,6 @@
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="3" t="n"/>
-      <c r="S9" s="3" t="n"/>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="3" t="n"/>
-      <c r="Z9" s="3" t="n"/>
-      <c r="AA9" s="3" t="n"/>
-      <c r="AB9" s="3" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="3" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-      <c r="AG9" s="3" t="n"/>
-      <c r="AH9" s="3" t="n"/>
-      <c r="AI9" s="3" t="n"/>
-      <c r="AJ9" s="3" t="n"/>
-      <c r="AK9" s="3" t="n"/>
-      <c r="AL9" s="3" t="n"/>
-      <c r="AM9" s="3" t="n"/>
-      <c r="AN9" s="3" t="n"/>
-      <c r="AO9" s="3" t="n"/>
-      <c r="AP9" s="3" t="n"/>
-      <c r="AQ9" s="3" t="n"/>
-      <c r="AR9" s="3" t="n"/>
-      <c r="AS9" s="3" t="n"/>
     </row>
     <row r="10" ht="13.55" customHeight="1" s="8">
       <c r="A10" s="3" t="n"/>
@@ -2079,44 +1544,6 @@
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="3" t="n"/>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="3" t="n"/>
-      <c r="Z10" s="3" t="n"/>
-      <c r="AA10" s="3" t="n"/>
-      <c r="AB10" s="3" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="3" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-      <c r="AG10" s="3" t="n"/>
-      <c r="AH10" s="3" t="n"/>
-      <c r="AI10" s="3" t="n"/>
-      <c r="AJ10" s="3" t="n"/>
-      <c r="AK10" s="3" t="n"/>
-      <c r="AL10" s="3" t="n"/>
-      <c r="AM10" s="3" t="n"/>
-      <c r="AN10" s="3" t="n"/>
-      <c r="AO10" s="3" t="n"/>
-      <c r="AP10" s="3" t="n"/>
-      <c r="AQ10" s="3" t="n"/>
-      <c r="AR10" s="3" t="n"/>
-      <c r="AS10" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
